--- a/Chart to Image/Chart to Image/.NET/Chart to Image/Chart to Image/Data/InputTemplate.xlsx
+++ b/Chart to Image/Chart to Image/.NET/Chart to Image/Chart to Image/Data/InputTemplate.xlsx
@@ -1,49 +1,150 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XlsIO - GitHub Samples\WF-62428-GitHubSamples-Phase15\Chart to Image\Chart to Image\NET Standard\Chart to Image\Chart to Image\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XlsIO-Examples\Chart to Image\Chart to Image\.NET\Chart to Image\Chart to Image\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080DE4AF-4DE2-41A3-8C4E-59D2FDC183B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3521B351-C529-430D-A328-72B594D763B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF983D8E-DF2E-4ADA-ADB0-136C5C5F409F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BarChart" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
+    <definedName name="_1FLOW">#REF!</definedName>
+    <definedName name="_Order1" hidden="1">0</definedName>
+    <definedName name="Data.Dump" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+    <definedName name="HTML_CodePage" hidden="1">1252</definedName>
+    <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
+    <definedName name="HTML_Description" hidden="1">""</definedName>
+    <definedName name="HTML_Email" hidden="1">""</definedName>
+    <definedName name="HTML_Header" hidden="1">"Leverage"</definedName>
+    <definedName name="HTML_LastUpdate" hidden="1">"8/21/00"</definedName>
+    <definedName name="HTML_LineAfter" hidden="1">FALSE</definedName>
+    <definedName name="HTML_LineBefore" hidden="1">FALSE</definedName>
+    <definedName name="HTML_Name" hidden="1">"Frank Vickers"</definedName>
+    <definedName name="HTML_OBDlg2" hidden="1">TRUE</definedName>
+    <definedName name="HTML_OBDlg4" hidden="1">TRUE</definedName>
+    <definedName name="HTML_OS" hidden="1">0</definedName>
+    <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
+    <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
+    <definedName name="Macro1">Macro1</definedName>
+    <definedName name="Macro2">Macro2</definedName>
+    <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Sales Report</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Amount(in $)</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Condiments</t>
+  </si>
+  <si>
+    <t>Confections</t>
+  </si>
+  <si>
+    <t>Dairy Products</t>
+  </si>
+  <si>
+    <t>Grains/Cereals</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5786B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +152,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,6 +221,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sales Report</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -129,66 +286,136 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="953735"/>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:srgbClr val="B0C6E1"/>
+                </a:gs>
+                <a:gs pos="83000">
+                  <a:srgbClr val="B0C6E1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="CAD9EB"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
+            <c:strRef>
+              <c:f>BarChart!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Beverages</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Condiments</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Confections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dairy Products</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Grains/Cereals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$5</c:f>
+              <c:f>BarChart!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>1368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>3325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB52-46AF-8287-4014F801335E}"/>
+              <c16:uniqueId val="{00000000-FDE1-4F37-9E22-66D7786E43BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -200,13 +427,231 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1684214544"/>
-        <c:axId val="1684216208"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="-892794848"/>
+        <c:axId val="-892794304"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FDE1-4F37-9E22-66D7786E43BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="plus"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-FDE1-4F37-9E22-66D7786E43BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="22225">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FDE1-4F37-9E22-66D7786E43BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="15875">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-FDE1-4F37-9E22-66D7786E43BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FDE1-4F37-9E22-66D7786E43BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>BarChart!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Beverages</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Condiments</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Confections</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dairy Products</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Grains/Cereals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BarChart!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FDE1-4F37-9E22-66D7786E43BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-892794848"/>
+        <c:axId val="-892794304"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="1684214544"/>
+        <c:axId val="-892794848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -249,17 +694,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1684216208"/>
+        <c:crossAx val="-892794304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1684216208"/>
+        <c:axId val="-892794304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -308,7 +754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1684214544"/>
+        <c:crossAx val="-892794848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -904,27 +1350,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>239357</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEA65DF4-C345-4C3D-B974-7DC3D27D149E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C1B591-BAB2-49BE-8E96-9C7060A111B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -952,44 +1400,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1019,12 +1467,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1063,197 +1511,349 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8507693-CCB8-4852-9563-CDE8958B0A1D}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>10</v>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2</v>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="B2">
-        <v>20</v>
+      <c r="B3" s="4">
+        <v>2776</v>
+      </c>
+      <c r="C3" s="5">
+        <v>925</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
       </c>
-      <c r="B3">
-        <v>30</v>
+      <c r="B4" s="4">
+        <v>1077</v>
+      </c>
+      <c r="C4" s="5">
+        <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>4</v>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
       </c>
-      <c r="B4">
-        <v>40</v>
+      <c r="B5" s="4">
+        <v>2287</v>
+      </c>
+      <c r="C5" s="5">
+        <v>880</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>5</v>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="B5">
-        <v>50</v>
+      <c r="B6" s="4">
+        <v>1368</v>
+      </c>
+      <c r="C6" s="5">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3325</v>
+      </c>
+      <c r="C7" s="5">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>